--- a/Dispersions table.xlsx
+++ b/Dispersions table.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="34">
   <si>
     <t>No_attr</t>
   </si>
@@ -157,6 +157,16 @@
   </si>
   <si>
     <t>2.L.5.fl.20.fn.512.dist.0.01!DONE!</t>
+  </si>
+  <si>
+    <t>log.L.5.fl.19.conf.5.np.9728.dens.0.01
+  log.L.5.fl.20.conf.1.np.10240.dens.0.01
+  log.L.5.fl.20.conf.2.np.10240.dens.0.01
+  log.L.5.fl.20.conf.2.np.10240.dens.0.05
+  log.L.5.fl.21.conf.3.np.10752.dens.0.05</t>
+  </si>
+  <si>
+    <t>`</t>
   </si>
 </sst>
 </file>
@@ -214,9 +224,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -225,12 +241,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -514,7 +525,7 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -530,24 +541,24 @@
       <c r="B1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2" t="s">
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
     </row>
     <row r="2" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -556,30 +567,30 @@
       <c r="B2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2" t="s">
+      <c r="H2" s="4"/>
+      <c r="I2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2" t="s">
+      <c r="J2" s="4"/>
+      <c r="K2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2" t="s">
+      <c r="L2" s="4"/>
+      <c r="M2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="2"/>
+      <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -629,7 +640,7 @@
       <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="1"/>
@@ -644,22 +655,24 @@
       <c r="J4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="E5" s="1" t="s">
         <v>16</v>
       </c>
@@ -672,16 +685,16 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="1"/>
@@ -696,26 +709,30 @@
       <c r="J6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="E7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="G7" s="1" t="s">
         <v>16</v>
       </c>
@@ -724,16 +741,16 @@
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="1"/>
@@ -748,22 +765,24 @@
       <c r="J8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="E9" s="1" t="s">
         <v>16</v>
       </c>
@@ -776,16 +795,16 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="1"/>
@@ -796,16 +815,16 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -817,21 +836,31 @@
       <c r="E11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
